--- a/website/etc_files/prices.xlsx
+++ b/website/etc_files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Name:</t>
   </si>
@@ -28,49 +28,70 @@
     <t>Fuettern Und Fit</t>
   </si>
   <si>
+    <t>Petshop Vetline</t>
+  </si>
+  <si>
+    <t>Vetmedpro</t>
+  </si>
+  <si>
+    <t>Dr. Hölter</t>
+  </si>
+  <si>
+    <t>Tierarzt24</t>
+  </si>
+  <si>
     <t>Tiershop</t>
   </si>
   <si>
-    <t>Dr. Hölter</t>
-  </si>
-  <si>
-    <t>Tierarzt24</t>
-  </si>
-  <si>
     <t>Vetena</t>
   </si>
   <si>
-    <t>Vetmedpro</t>
-  </si>
-  <si>
-    <t>Petshop Vetline</t>
-  </si>
-  <si>
     <t>Ebay</t>
   </si>
   <si>
     <t>https://www.fuetternundfit.de/astoral-almazyme.html</t>
   </si>
   <si>
+    <t>https://www.petshop-vetline.de/hunde/ergaenzungsfuttermittel/magen-darm/almapharm-astoral-almazyme-120-g</t>
+  </si>
+  <si>
+    <t>https://www.vetmedpro.de/astoralZ-AlmazymeZ-120g-Diaet-Ergaenzungsfuttermittel-fuer-Hunde-und-Katzen</t>
+  </si>
+  <si>
+    <t>https://www.drhoelter.de/almapharm-astoral-almazyme-hund-katze-nahrungsergaenzung-verdauung-bauchspeicheldruese.html</t>
+  </si>
+  <si>
+    <t>https://www.tierarzt24.de/almapharm-astoral-almazyme-hk</t>
+  </si>
+  <si>
     <t>https://www.tiershop.de/Astoral-Almazyme.html</t>
   </si>
   <si>
-    <t>https://www.drhoelter.de/almapharm-astoral-almazyme-hund-katze-nahrungsergaenzung-verdauung-bauchspeicheldruese.html</t>
-  </si>
-  <si>
-    <t>https://www.tierarzt24.de/almapharm-astoral-almazyme-hk</t>
-  </si>
-  <si>
     <t>https://www.vetena.de/almapharm-astoral-Almazyme-Hund.html</t>
   </si>
   <si>
-    <t>https://www.vetmedpro.de/astoralZ-AlmazymeZ-120g-Diaet-Ergaenzungsfuttermittel-fuer-Hunde-und-Katzen</t>
-  </si>
-  <si>
-    <t>https://www.petshop-vetline.de/hunde/ergaenzungsfuttermittel/magen-darm/almapharm-astoral-almazyme-120-g</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/astoral-Almazyme-120g-Diat-Erganzungsfuttermittel-fur-Hunde-und-Katzen/324480730788</t>
+  </si>
+  <si>
+    <t>22,64 €</t>
+  </si>
+  <si>
+    <t>22,70 €</t>
+  </si>
+  <si>
+    <t>22,75 €</t>
+  </si>
+  <si>
+    <t>22,87 €</t>
+  </si>
+  <si>
+    <t>23,00 €</t>
+  </si>
+  <si>
+    <t>23,10 €</t>
+  </si>
+  <si>
+    <t>25,40 €</t>
   </si>
 </sst>
 </file>
@@ -452,8 +473,8 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -463,8 +484,8 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,8 +495,8 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,8 +506,8 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,8 +517,8 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -507,8 +528,8 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -518,8 +539,8 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -529,8 +550,8 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/website/etc_files/prices.xlsx
+++ b/website/etc_files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Name:</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Preis:</t>
   </si>
   <si>
+    <t>Updated:</t>
+  </si>
+  <si>
     <t>Fuettern Und Fit</t>
   </si>
   <si>
@@ -73,25 +76,7 @@
     <t>https://www.ebay.de/itm/astoral-Almazyme-120g-Diat-Erganzungsfuttermittel-fur-Hunde-und-Katzen/324480730788</t>
   </si>
   <si>
-    <t>22,64 €</t>
-  </si>
-  <si>
-    <t>22,70 €</t>
-  </si>
-  <si>
-    <t>22,75 €</t>
-  </si>
-  <si>
-    <t>22,87 €</t>
-  </si>
-  <si>
-    <t>23,00 €</t>
-  </si>
-  <si>
-    <t>23,10 €</t>
-  </si>
-  <si>
-    <t>25,40 €</t>
+    <t>28.03.2021 17:30</t>
   </si>
 </sst>
 </file>
@@ -449,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,93 +450,120 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22.64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22.64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22.75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>22.87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
+      <c r="C9" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/website/etc_files/prices.xlsx
+++ b/website/etc_files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Name:</t>
   </si>
@@ -76,7 +76,10 @@
     <t>https://www.ebay.de/itm/astoral-Almazyme-120g-Diat-Erganzungsfuttermittel-fur-Hunde-und-Katzen/324480730788</t>
   </si>
   <si>
-    <t>28.03.2021 17:30</t>
+    <t>28.03.2021 17:48</t>
+  </si>
+  <si>
+    <t>28.03.2021 17:49</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
         <v>22.64</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,7 +496,7 @@
         <v>22.7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -521,7 +524,7 @@
         <v>22.87</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -549,7 +552,7 @@
         <v>23.1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -563,7 +566,7 @@
         <v>25.4</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/website/etc_files/prices.xlsx
+++ b/website/etc_files/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Name:</t>
   </si>
@@ -28,58 +28,55 @@
     <t>Updated:</t>
   </si>
   <si>
+    <t>Dr. Hölter</t>
+  </si>
+  <si>
+    <t>Vetmedpro</t>
+  </si>
+  <si>
+    <t>Tiershop</t>
+  </si>
+  <si>
+    <t>Vetena</t>
+  </si>
+  <si>
+    <t>Petshop Vetline</t>
+  </si>
+  <si>
     <t>Fuettern Und Fit</t>
   </si>
   <si>
-    <t>Petshop Vetline</t>
-  </si>
-  <si>
-    <t>Vetmedpro</t>
-  </si>
-  <si>
-    <t>Dr. Hölter</t>
+    <t>Ebay</t>
   </si>
   <si>
     <t>Tierarzt24</t>
   </si>
   <si>
-    <t>Tiershop</t>
-  </si>
-  <si>
-    <t>Vetena</t>
-  </si>
-  <si>
-    <t>Ebay</t>
+    <t>https://www.drhoelter.de/almapharm-astoral-almazyme-hund-katze-nahrungsergaenzung-verdauung-bauchspeicheldruese.html</t>
+  </si>
+  <si>
+    <t>https://www.vetmedpro.de/astoralZ-AlmazymeZ-120g-Diaet-Ergaenzungsfuttermittel-fuer-Hunde-und-Katzen</t>
+  </si>
+  <si>
+    <t>https://www.tiershop.de/Astoral-Almazyme.html</t>
+  </si>
+  <si>
+    <t>https://www.vetena.de/almapharm-astoral-Almazyme-Hund.html</t>
+  </si>
+  <si>
+    <t>https://www.petshop-vetline.de/hunde/ergaenzungsfuttermittel/magen-darm/almapharm-astoral-almazyme-120-g</t>
   </si>
   <si>
     <t>https://www.fuetternundfit.de/astoral-almazyme.html</t>
   </si>
   <si>
-    <t>https://www.petshop-vetline.de/hunde/ergaenzungsfuttermittel/magen-darm/almapharm-astoral-almazyme-120-g</t>
-  </si>
-  <si>
-    <t>https://www.vetmedpro.de/astoralZ-AlmazymeZ-120g-Diaet-Ergaenzungsfuttermittel-fuer-Hunde-und-Katzen</t>
-  </si>
-  <si>
-    <t>https://www.drhoelter.de/almapharm-astoral-almazyme-hund-katze-nahrungsergaenzung-verdauung-bauchspeicheldruese.html</t>
+    <t>https://www.ebay.de/itm/astoral-Almazyme-120g-Diat-Erganzungsfuttermittel-fur-Hunde-und-Katzen/324480730788</t>
   </si>
   <si>
     <t>https://www.tierarzt24.de/almapharm-astoral-almazyme-hk</t>
   </si>
   <si>
-    <t>https://www.tiershop.de/Astoral-Almazyme.html</t>
-  </si>
-  <si>
-    <t>https://www.vetena.de/almapharm-astoral-Almazyme-Hund.html</t>
-  </si>
-  <si>
-    <t>https://www.ebay.de/itm/astoral-Almazyme-120g-Diat-Erganzungsfuttermittel-fur-Hunde-und-Katzen/324480730788</t>
-  </si>
-  <si>
-    <t>28.03.2021 17:48</t>
-  </si>
-  <si>
-    <t>28.03.2021 17:49</t>
+    <t>28.03.2021 18:26</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>22.64</v>
+        <v>20.16</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -479,10 +476,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>22.64</v>
+        <v>21.27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,10 +490,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="3">
-        <v>22.7</v>
+        <v>22.23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -507,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3">
-        <v>22.75</v>
+        <v>22.45</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -521,10 +518,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>22.87</v>
+        <v>22.64</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -535,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>23</v>
+        <v>24.69</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -549,10 +546,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="3">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -563,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>25.4</v>
+        <v>25.72</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/website/etc_files/prices.xlsx
+++ b/website/etc_files/prices.xlsx
@@ -76,7 +76,7 @@
     <t>https://www.tierarzt24.de/almapharm-astoral-almazyme-hk</t>
   </si>
   <si>
-    <t>28.03.2021 18:26</t>
+    <t>28.03.2021 18:46</t>
   </si>
 </sst>
 </file>
